--- a/public/Product.xlsx
+++ b/public/Product.xlsx
@@ -1,43 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel-market\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12570" windowHeight="11145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Мыло квадратное "Кофейное"</t>
-  </si>
-  <si>
-    <t>Ароматизатор: Кофе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ароматизатор: Свежесть махито с освежающей
-Добавка: Ментол </t>
-  </si>
-  <si>
-    <t>Квадратной мыло "Радужное настроение"</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t xml:space="preserve">title </t>
   </si>
@@ -60,23 +44,76 @@
     <t xml:space="preserve">seo_description </t>
   </si>
   <si>
-    <t>Квадратное кофейное мыло купить во Владимире в интернет магазине TeisBubble</t>
-  </si>
-  <si>
-    <t>Квадратной мыло "Радужное настроение" купить во Владимире в интернет магазине TeisBubble</t>
-  </si>
-  <si>
-    <t>Купить квадратное мыло "кофейное" по цене 105 рублей, доставка по Владимиру. Интернет магазин TeisBubble.</t>
-  </si>
-  <si>
-    <t>Купить Квадратное мыло "Радужное настроение"по цене 115 рублей, добавка ментол, доставка по Владимиру. Интернет магазин TeisBubble.</t>
+    <t>Набор мыла " Малиновый"</t>
+  </si>
+  <si>
+    <t>Набор мыла "Летнее настроение"</t>
+  </si>
+  <si>
+    <t>Мыльный набор к чаю</t>
+  </si>
+  <si>
+    <t>Мыльный набор "Радужный"</t>
+  </si>
+  <si>
+    <t>Макарон красный</t>
+  </si>
+  <si>
+    <t>Макарон синий</t>
+  </si>
+  <si>
+    <t>Макарон желтый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Макарон зеленный </t>
+  </si>
+  <si>
+    <t>Ароматизатор: Арбуз</t>
+  </si>
+  <si>
+    <t>Ароматизатор: Малина
+Ароматизатор: Пломбир</t>
+  </si>
+  <si>
+    <t>Ароматизатор: Печенье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мыло "Клубничное" </t>
+  </si>
+  <si>
+    <t>Ароматизатор: Клубника
+Вес с упаковкой: 140 гр.</t>
+  </si>
+  <si>
+    <t>Мыльный набор "Макарон"</t>
+  </si>
+  <si>
+    <t>Ароматизатор:  Печенье</t>
+  </si>
+  <si>
+    <t>Мыло в форме макарона цвет красный купить по цене 40 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</t>
+  </si>
+  <si>
+    <t>Мыло в форме макарона цвет синий купить по цене 40 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</t>
+  </si>
+  <si>
+    <t>Мыло в форме макарона цвет желтый купить по цене 40 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</t>
+  </si>
+  <si>
+    <t>Мыло в форме макарона цвет зеленый купить по цене 40 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</t>
+  </si>
+  <si>
+    <t>Мыло топленное печенье</t>
+  </si>
+  <si>
+    <t>Ароматизатор: Свежесть махито</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,25 +122,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,9 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -130,7 +155,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -159,39 +183,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,229 +294,506 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>115</v>
-      </c>
-      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>110</v>
-      </c>
-      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="str">
+        <f>A2&amp;" купить во Владимире - интернет магазин TeisBubble"</f>
+        <v>Набор мыла "Летнее настроение" купить во Владимире - интернет магазин TeisBubble</v>
+      </c>
+      <c r="G2" t="str">
+        <f>A2&amp;" купить по цене "&amp;C2&amp;" рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble."</f>
+        <v>Набор мыла "Летнее настроение" купить по цене 180 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>170</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F9" si="0">A3&amp;" купить во Владимире - интернет магазин TeisBubble"</f>
+        <v>Мыльный набор к чаю купить во Владимире - интернет магазин TeisBubble</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G5" si="1">A3&amp;" купить по цене "&amp;C3&amp;" рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble."</f>
+        <v>Мыльный набор к чаю купить по цене 250 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>350</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>250</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Набор мыла " Малиновый" купить во Владимире - интернет магазин TeisBubble</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Набор мыла " Малиновый" купить по цене 350 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>235</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Мыльный набор "Радужный" купить во Владимире - интернет магазин TeisBubble</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Мыльный набор "Радужный" купить по цене 250 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Макарон красный купить во Владимире - интернет магазин TeisBubble</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Макарон синий купить во Владимире - интернет магазин TeisBubble</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>115</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>110</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Макарон желтый купить во Владимире - интернет магазин TeisBubble</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Макарон зеленный  купить во Владимире - интернет магазин TeisBubble</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>140</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>120</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" ref="F10:F12" si="2">A10&amp;" купить во Владимире - интернет магазин TeisBubble"</f>
+        <v>Мыло "Клубничное"  купить во Владимире - интернет магазин TeisBubble</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>A10&amp;" купить по цене "&amp;C10&amp;" рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble."</f>
+        <v>Мыло "Клубничное"  купить по цене 140 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>150</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>Мыльный набор "Макарон" купить во Владимире - интернет магазин TeisBubble</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>A11&amp;" купить по цене "&amp;C11&amp;" рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble."</f>
+        <v>Мыльный набор "Макарон" купить по цене 150 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>82</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>Мыло топленное печенье купить во Владимире - интернет магазин TeisBubble</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>A12&amp;" купить по цене "&amp;C12&amp;" рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble."</f>
+        <v>Мыло топленное печенье купить по цене 80 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/Product.xlsx
+++ b/public/Product.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t xml:space="preserve">title </t>
   </si>
@@ -107,6 +107,60 @@
   </si>
   <si>
     <t>Ароматизатор: Свежесть махито</t>
+  </si>
+  <si>
+    <t>Набор мыла "Летнее настроение" купить во Владимире - интернет магазин TeisBubble</t>
+  </si>
+  <si>
+    <t>Набор мыла "Летнее настроение" купить по цене 180 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</t>
+  </si>
+  <si>
+    <t>Мыльный набор к чаю купить во Владимире - интернет магазин TeisBubble</t>
+  </si>
+  <si>
+    <t>Мыльный набор к чаю купить по цене 250 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</t>
+  </si>
+  <si>
+    <t>Набор мыла " Малиновый" купить во Владимире - интернет магазин TeisBubble</t>
+  </si>
+  <si>
+    <t>Набор мыла " Малиновый" купить по цене 350 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</t>
+  </si>
+  <si>
+    <t>Мыльный набор "Радужный" купить во Владимире - интернет магазин TeisBubble</t>
+  </si>
+  <si>
+    <t>Мыльный набор "Радужный" купить по цене 250 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</t>
+  </si>
+  <si>
+    <t>Макарон красный купить во Владимире - интернет магазин TeisBubble</t>
+  </si>
+  <si>
+    <t>Макарон синий купить во Владимире - интернет магазин TeisBubble</t>
+  </si>
+  <si>
+    <t>Макарон желтый купить во Владимире - интернет магазин TeisBubble</t>
+  </si>
+  <si>
+    <t>Макарон зеленный  купить во Владимире - интернет магазин TeisBubble</t>
+  </si>
+  <si>
+    <t>Мыло "Клубничное"  купить во Владимире - интернет магазин TeisBubble</t>
+  </si>
+  <si>
+    <t>Мыло "Клубничное"  купить по цене 140 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</t>
+  </si>
+  <si>
+    <t>Мыльный набор "Макарон" купить во Владимире - интернет магазин TeisBubble</t>
+  </si>
+  <si>
+    <t>Мыльный набор "Макарон" купить по цене 150 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</t>
+  </si>
+  <si>
+    <t>Мыло топленное печенье купить во Владимире - интернет магазин TeisBubble</t>
+  </si>
+  <si>
+    <t>Мыло топленное печенье купить по цене 80 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</t>
   </si>
 </sst>
 </file>
@@ -462,7 +516,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,13 +568,11 @@
       <c r="E2">
         <v>170</v>
       </c>
-      <c r="F2" t="str">
-        <f>A2&amp;" купить во Владимире - интернет магазин TeisBubble"</f>
-        <v>Набор мыла "Летнее настроение" купить во Владимире - интернет магазин TeisBubble</v>
-      </c>
-      <c r="G2" t="str">
-        <f>A2&amp;" купить по цене "&amp;C2&amp;" рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble."</f>
-        <v>Набор мыла "Летнее настроение" купить по цене 180 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -539,13 +591,11 @@
       <c r="E3">
         <v>170</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F9" si="0">A3&amp;" купить во Владимире - интернет магазин TeisBubble"</f>
-        <v>Мыльный набор к чаю купить во Владимире - интернет магазин TeisBubble</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G5" si="1">A3&amp;" купить по цене "&amp;C3&amp;" рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble."</f>
-        <v>Мыльный набор к чаю купить по цене 250 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -564,13 +614,11 @@
       <c r="E4">
         <v>250</v>
       </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Набор мыла " Малиновый" купить во Владимире - интернет магазин TeisBubble</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Набор мыла " Малиновый" купить по цене 350 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -589,13 +637,11 @@
       <c r="E5">
         <v>235</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Мыльный набор "Радужный" купить во Владимире - интернет магазин TeisBubble</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Мыльный набор "Радужный" купить по цене 250 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -614,9 +660,8 @@
       <c r="E6">
         <v>25</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>Макарон красный купить во Владимире - интернет магазин TeisBubble</v>
+      <c r="F6" t="s">
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>22</v>
@@ -638,9 +683,8 @@
       <c r="E7">
         <v>25</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>Макарон синий купить во Владимире - интернет магазин TeisBubble</v>
+      <c r="F7" t="s">
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>23</v>
@@ -662,9 +706,8 @@
       <c r="E8">
         <v>25</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>Макарон желтый купить во Владимире - интернет магазин TeisBubble</v>
+      <c r="F8" t="s">
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>24</v>
@@ -686,9 +729,8 @@
       <c r="E9">
         <v>25</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>Макарон зеленный  купить во Владимире - интернет магазин TeisBubble</v>
+      <c r="F9" t="s">
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
@@ -710,13 +752,11 @@
       <c r="E10">
         <v>120</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" ref="F10:F12" si="2">A10&amp;" купить во Владимире - интернет магазин TeisBubble"</f>
-        <v>Мыло "Клубничное"  купить во Владимире - интернет магазин TeisBubble</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f>A10&amp;" купить по цене "&amp;C10&amp;" рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble."</f>
-        <v>Мыло "Клубничное"  купить по цене 140 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -735,13 +775,11 @@
       <c r="E11">
         <v>100</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="2"/>
-        <v>Мыльный набор "Макарон" купить во Владимире - интернет магазин TeisBubble</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f>A11&amp;" купить по цене "&amp;C11&amp;" рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble."</f>
-        <v>Мыльный набор "Макарон" купить по цене 150 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -760,13 +798,11 @@
       <c r="E12">
         <v>82</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="2"/>
-        <v>Мыло топленное печенье купить во Владимире - интернет магазин TeisBubble</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f>A12&amp;" купить по цене "&amp;C12&amp;" рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble."</f>
-        <v>Мыло топленное печенье купить по цене 80 рублей - доставка по Владимиру и всей России. Интернет магазин Teisbubble.</v>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
